--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220523_110302.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220523_110302.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="256">
   <si>
     <t>사이트</t>
   </si>
@@ -725,9 +725,6 @@
   </si>
   <si>
     <t>기타</t>
-  </si>
-  <si>
-    <t>개인</t>
   </si>
   <si>
     <t>WAKE ONE</t>
@@ -1818,7 +1815,7 @@
         <v>179</v>
       </c>
       <c r="G26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H26" t="s">
         <v>236</v>
@@ -1974,7 +1971,7 @@
         <v>181</v>
       </c>
       <c r="G32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H32" t="s">
         <v>236</v>
@@ -2052,7 +2049,7 @@
         <v>43</v>
       </c>
       <c r="G35" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H35" t="s">
         <v>236</v>
@@ -2156,7 +2153,7 @@
         <v>183</v>
       </c>
       <c r="G39" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H39" t="s">
         <v>236</v>
@@ -2182,7 +2179,7 @@
         <v>184</v>
       </c>
       <c r="G40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H40" t="s">
         <v>236</v>
@@ -2234,7 +2231,7 @@
         <v>50</v>
       </c>
       <c r="G42" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H42" t="s">
         <v>236</v>
@@ -2260,7 +2257,7 @@
         <v>51</v>
       </c>
       <c r="G43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H43" t="s">
         <v>236</v>
@@ -2286,7 +2283,7 @@
         <v>185</v>
       </c>
       <c r="G44" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H44" t="s">
         <v>236</v>
@@ -2312,7 +2309,7 @@
         <v>53</v>
       </c>
       <c r="G45" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H45" t="s">
         <v>236</v>
@@ -2338,7 +2335,7 @@
         <v>186</v>
       </c>
       <c r="G46" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H46" t="s">
         <v>236</v>
@@ -2364,7 +2361,7 @@
         <v>55</v>
       </c>
       <c r="G47" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H47" t="s">
         <v>236</v>
@@ -2390,10 +2387,10 @@
         <v>56</v>
       </c>
       <c r="G48" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H48" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2416,7 +2413,7 @@
         <v>187</v>
       </c>
       <c r="G49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H49" t="s">
         <v>236</v>
@@ -2520,7 +2517,7 @@
         <v>61</v>
       </c>
       <c r="G53" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H53" t="s">
         <v>236</v>
@@ -2572,7 +2569,7 @@
         <v>190</v>
       </c>
       <c r="G55" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H55" t="s">
         <v>236</v>
@@ -2624,7 +2621,7 @@
         <v>192</v>
       </c>
       <c r="G57" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H57" t="s">
         <v>236</v>
@@ -2650,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H58" t="s">
         <v>236</v>
@@ -2702,10 +2699,10 @@
         <v>193</v>
       </c>
       <c r="G60" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H60" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2728,7 +2725,7 @@
         <v>69</v>
       </c>
       <c r="G61" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H61" t="s">
         <v>236</v>
@@ -2780,7 +2777,7 @@
         <v>71</v>
       </c>
       <c r="G63" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H63" t="s">
         <v>236</v>
@@ -2806,7 +2803,7 @@
         <v>195</v>
       </c>
       <c r="G64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H64" t="s">
         <v>236</v>
@@ -2884,7 +2881,7 @@
         <v>198</v>
       </c>
       <c r="G67" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H67" t="s">
         <v>236</v>
@@ -2936,7 +2933,7 @@
         <v>198</v>
       </c>
       <c r="G69" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H69" t="s">
         <v>236</v>
@@ -2962,7 +2959,7 @@
         <v>200</v>
       </c>
       <c r="G70" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H70" t="s">
         <v>236</v>
@@ -3014,7 +3011,7 @@
         <v>80</v>
       </c>
       <c r="G72" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H72" t="s">
         <v>236</v>
@@ -3040,7 +3037,7 @@
         <v>201</v>
       </c>
       <c r="G73" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H73" t="s">
         <v>236</v>
@@ -3066,7 +3063,7 @@
         <v>202</v>
       </c>
       <c r="G74" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H74" t="s">
         <v>236</v>
@@ -3092,7 +3089,7 @@
         <v>203</v>
       </c>
       <c r="G75" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H75" t="s">
         <v>236</v>
@@ -3118,7 +3115,7 @@
         <v>84</v>
       </c>
       <c r="G76" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H76" t="s">
         <v>236</v>
@@ -3170,10 +3167,10 @@
         <v>205</v>
       </c>
       <c r="G78" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H78" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3222,7 +3219,7 @@
         <v>207</v>
       </c>
       <c r="G80" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H80" t="s">
         <v>236</v>
@@ -3248,7 +3245,7 @@
         <v>208</v>
       </c>
       <c r="G81" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H81" t="s">
         <v>236</v>
@@ -3274,7 +3271,7 @@
         <v>209</v>
       </c>
       <c r="G82" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H82" t="s">
         <v>236</v>
@@ -3300,7 +3297,7 @@
         <v>210</v>
       </c>
       <c r="G83" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H83" t="s">
         <v>236</v>
@@ -3326,7 +3323,7 @@
         <v>92</v>
       </c>
       <c r="G84" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H84" t="s">
         <v>236</v>
@@ -3352,7 +3349,7 @@
         <v>211</v>
       </c>
       <c r="G85" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H85" t="s">
         <v>236</v>
@@ -3404,7 +3401,7 @@
         <v>212</v>
       </c>
       <c r="G87" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H87" t="s">
         <v>236</v>
@@ -3456,7 +3453,7 @@
         <v>188</v>
       </c>
       <c r="G89" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H89" t="s">
         <v>236</v>
@@ -3534,7 +3531,7 @@
         <v>216</v>
       </c>
       <c r="G92" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H92" t="s">
         <v>236</v>
@@ -3560,7 +3557,7 @@
         <v>101</v>
       </c>
       <c r="G93" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H93" t="s">
         <v>236</v>
@@ -3612,7 +3609,7 @@
         <v>103</v>
       </c>
       <c r="G95" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H95" t="s">
         <v>236</v>
@@ -3664,7 +3661,7 @@
         <v>218</v>
       </c>
       <c r="G97" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H97" t="s">
         <v>236</v>
@@ -3742,7 +3739,7 @@
         <v>221</v>
       </c>
       <c r="G100" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H100" t="s">
         <v>236</v>
@@ -3768,7 +3765,7 @@
         <v>222</v>
       </c>
       <c r="G101" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H101" t="s">
         <v>236</v>
